--- a/Excels/Enum.xlsx
+++ b/Excels/Enum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>#Type</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Effect</t>
   </si>
   <si>
+    <t xml:space="preserve">Q </t>
+  </si>
+  <si>
     <t>转换器</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>10D</t>
-  </si>
-  <si>
-    <t>12F</t>
   </si>
   <si>
     <t>88Q</t>
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,18 +119,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,75 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,28 +213,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,12 +272,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,169 +320,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +466,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -514,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,11 +522,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +537,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,130 +584,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A2:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q88" sqref="Q88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1115,7 +1115,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1128,69 +1128,215 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="1" spans="2:6">
       <c r="B10" s="3"/>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="3"/>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="6:6">
       <c r="F12" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="17:17">
